--- a/input/general/Population_projection_NUTS2.xlsx
+++ b/input/general/Population_projection_NUTS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203DBBB0-F2BA-4EC1-916A-7C3B572282F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5B48C-03BD-4B1F-A0FD-9C5A41A7CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="990" windowWidth="21600" windowHeight="11100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Populationprojection_NUTS2_2021" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="641">
   <si>
     <t>Code</t>
   </si>
@@ -1879,21 +1879,12 @@
     <t>Region Juzne i Istocne Srbije</t>
   </si>
   <si>
-    <t>KO01</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Kosovo</t>
   </si>
   <si>
-    <t>BA01</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>NO04-&gt; NO09</t>
-  </si>
-  <si>
     <t>NO05 -&gt; NO0A</t>
   </si>
   <si>
@@ -1930,12 +1921,6 @@
     <t>Projections 2016 und 2021 are the same, except for  Norway</t>
   </si>
   <si>
-    <t>NO01 und NO03 -&gt; NO08 Avarage of all chnages (39.9+45.1)/2 = 57 -&gt; yearly change = 1.297128142</t>
-  </si>
-  <si>
-    <t>Eurostat, Population_projections_RYB2016.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unit: </t>
   </si>
   <si>
@@ -1946,13 +1931,40 @@
   </si>
   <si>
     <t>Anual growth rate of population from 2015 till 2050</t>
+  </si>
+  <si>
+    <t>BA00</t>
+  </si>
+  <si>
+    <t>KO00</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>NO01 and NO03 -&gt; NO08 Avarage of all chnages (39.9+45.1)/2 = 57 -&gt; yearly change = 1.297128142</t>
+  </si>
+  <si>
+    <t>NO04 -&gt; NO09</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>Population_projections_RYB2016.xlsx</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/statistics-explained/images/2/2e/Population_projections_RYB2016.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2083,6 +2095,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2385,7 +2405,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2428,11 +2448,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2463,6 +2485,7 @@
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -2755,7 +2778,7 @@
   <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,10 +2970,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C14">
         <v>-0.7</v>
@@ -5425,10 +5448,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>633</v>
+      </c>
+      <c r="B191" t="s">
         <v>614</v>
-      </c>
-      <c r="B191" t="s">
-        <v>615</v>
       </c>
       <c r="C191">
         <v>0.06</v>
@@ -5761,10 +5784,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B215" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C215">
         <v>1.297128142</v>
@@ -5775,7 +5798,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B216" t="s">
         <v>575</v>
@@ -5789,7 +5812,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B217" t="s">
         <v>577</v>
@@ -7087,8 +7110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7104,10 +7127,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11396,10 +11419,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>633</v>
+      </c>
+      <c r="B308" t="s">
         <v>614</v>
-      </c>
-      <c r="B308" t="s">
-        <v>615</v>
       </c>
       <c r="C308">
         <v>0.06</v>
@@ -11410,10 +11433,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="B309" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C309">
         <v>-0.7</v>
@@ -11429,74 +11452,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D5" t="s">
+        <v>639</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>625</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B8" t="s">
         <v>635</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>629</v>
-      </c>
-      <c r="B6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>619</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{4AE6ED7B-36A0-4206-8ADD-4DF64CDDD908}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{E53FA6CA-028C-4D64-9EA8-761D64F10F5C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>